--- a/biology/Botanique/Jardin_botanique_de_Padoue/Jardin_botanique_de_Padoue.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Padoue/Jardin_botanique_de_Padoue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Jardin botanique de Padoue (Orto botanico di Padova en italien) est le plus ancien jardin botanique encore existant au monde, créé en 1545. C'est un monument de valeur historique, architecturale et botanique classé par l’Organisation des Nations unies pour l'éducation, la science et la culture (UNESCO) au patrimoine de l'humanité. Ce jardin botanique est situé à Padoue, dans la région de Vénétie, en Italie.
@@ -512,7 +524,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1545, il est le plus ancien jardin botanique universitaire du monde. Il a été créé par Francesco Bonafede sur commande du Sénat de la République de Venise pour la culture des plantes médicinales, qui en ce temps-là constituaient la plupart des « simples », c’est-à-dire ces médicaments qui étaient extraits directement de substances végétales naturelles. Pour cette raison, les premiers jardins botaniques s’appelaient jardin des simples.
 L’institution du jardin devait aider les étudiants à reconnaître les différents types des plantes médicinales.
@@ -552,7 +566,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pendant la première partie du XVe siècle Padoue connaît un extraordinaire développement du bâtiment public.
 La tradition dit que la République de Venise a donné mandat à Andrea Moroni de bâtir les nouveaux murs de protection du Jardin. Il s’inspire des « Horti Conclusi » du Moyen Âge, tandis que c’est le cercle avec le carré inscrit à l'intérieur qui exprime une idée de perfection.
@@ -587,7 +603,9 @@
           <t>Les arbres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin botanique de Padoue a toujours rassemblé et cultivé des plantes exotiques rares introduites ensuite dans le reste de l'Europe. Parmi ces plantes, on compte un gattilier qui a vécu jusqu'en 1984 (cité dans un inventaire de 1550) et un palmier nain de la variété Arborescens qui inspira Goethe durant son séjour en Italie en 1786 dans son essai nommé Versuch die Metamolphosen der Pflanzen zu erklären. Ce palmier se trouve dans une serre à l’intérieur de l'hortus sphaericus où l'on trouve aussi un ginkgo et un magnolia parmi les plus anciens d’Europe.
 À l’extérieur, dans l'arboretum, pousse, depuis 1680, un gigantesque platane au tronc creux depuis qu'il a subi les attaques de la foudre.
@@ -621,7 +639,9 @@
           <t>Les collections</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Du fait de l'espace limité des serres, les collections vivantes du jardin botanique sont conservées pour la plupart en plein air.
 Le nombre de plantes cultivées est aujourd’hui de 6 000 exemplaires environ.
@@ -659,7 +679,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Aire de la flore méditerranéenne.
